--- a/docs/Figures/RespiratoryWorking.xlsx
+++ b/docs/Figures/RespiratoryWorking.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7770" firstSheet="4" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7770" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Conscious Respiration" sheetId="20" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Sheet1" sheetId="10" r:id="rId12"/>
     <sheet name="PneumoResistance" sheetId="21" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -351,7 +351,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -800,12 +800,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6759,6 +6762,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0FC9-493E-843C-3112C1A7EE20}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6795,7 +6803,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -6830,7 +6837,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -6855,7 +6861,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6981,6 +6987,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-67D5-4F9A-9A07-F5AA184A84B7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -7072,7 +7083,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -7099,7 +7109,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7219,6 +7229,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9A6A-47BF-89BF-BCDDA2042005}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -7311,7 +7326,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -7336,7 +7350,7 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7443,6 +7457,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D32E-4D7F-BCF3-769BF9966137}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -7519,7 +7538,7 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8163,6 +8182,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1E75-43F4-8F2D-874D4B20D497}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -8209,7 +8233,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8225,7 +8248,7 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8890,6 +8913,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B222-41F6-9E72-DAEEB785A85B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -8927,7 +8955,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -8966,7 +8993,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -8996,7 +9022,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -14935,6 +14961,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-49EE-413F-92FE-706582B014BC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -14971,7 +15002,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -15018,7 +15048,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -15055,7 +15084,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -15181,6 +15210,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2A14-4EAA-85CC-C68612F10F64}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -15218,7 +15252,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -15257,7 +15290,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -15284,7 +15316,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -15410,6 +15442,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0572-44F0-8A03-F1B4CC005B83}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -15447,7 +15484,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -15486,7 +15522,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -15513,7 +15548,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -15639,6 +15674,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C5C8-4C33-84C7-C882592443BB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -15676,7 +15716,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -15717,7 +15756,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -15744,7 +15782,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -15876,6 +15914,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-77AD-4805-912D-0259CFF788F0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -15913,7 +15956,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -15960,7 +16002,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -15987,7 +16028,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -16119,6 +16160,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3B58-4650-B28B-75BD2AB848AD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -16156,7 +16202,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -16203,7 +16248,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -16230,7 +16274,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -16362,6 +16406,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7ECA-4623-8A95-01A7695D131A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -16399,7 +16448,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="0"/>
@@ -16440,7 +16488,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="0"/>
@@ -16467,7 +16514,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -16593,6 +16640,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F43B-44C0-8CCD-0C6DE7DA382C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -16630,7 +16682,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -16677,7 +16728,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -16720,7 +16770,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -16752,7 +16808,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -16789,7 +16851,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -16824,7 +16892,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -16861,7 +16935,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -16898,7 +16978,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -16935,7 +17021,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -16972,7 +17064,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -17004,7 +17102,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -17041,7 +17145,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -17078,7 +17188,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -17115,7 +17231,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -17147,7 +17269,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -17184,7 +17312,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -17245,7 +17379,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -17278,9 +17412,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -17313,6 +17464,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -20060,7 +20228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D5:E105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V43" sqref="V43"/>
     </sheetView>
   </sheetViews>
@@ -32204,7 +32372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
